--- a/database/industries/palayesh/shapna/balancesheet/quarterly.xlsx
+++ b/database/industries/palayesh/shapna/balancesheet/quarterly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\palayesh\shapna\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218905DE-3403-48A7-9F2E-2B9600DF15AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F22259-5DBB-494E-8A91-28803830C169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>شپنا-پالایش نفت اصفهان</t>
@@ -37,24 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل اول منتهی به 1399/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
-    <t>فصل سوم منتهی به 1399/09</t>
-  </si>
-  <si>
-    <t>فصل چهارم منتهی به 1399/12</t>
-  </si>
-  <si>
-    <t>فصل اول منتهی به 1400/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -67,37 +49,25 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1399-06-16 (2)</t>
-  </si>
-  <si>
-    <t>1399-09-30 (2)</t>
-  </si>
-  <si>
-    <t>1399-11-28</t>
-  </si>
-  <si>
-    <t>1401-04-21 (10)</t>
-  </si>
-  <si>
-    <t>1400-07-21</t>
-  </si>
-  <si>
-    <t>1400-09-18 (3)</t>
-  </si>
-  <si>
     <t>1400-10-29</t>
   </si>
   <si>
-    <t>1401-07-29 (4)</t>
+    <t>1401-10-28 (7)</t>
   </si>
   <si>
     <t>1401-04-30</t>
   </si>
   <si>
-    <t>1401-07-29</t>
+    <t>1401-09-23 (3)</t>
+  </si>
+  <si>
+    <t>1401-10-28</t>
   </si>
   <si>
     <t>دارایی</t>
@@ -728,7 +698,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M59"/>
+  <dimension ref="B1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -736,14 +706,12 @@
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="6" width="29" customWidth="1"/>
-    <col min="7" max="7" width="31" customWidth="1"/>
-    <col min="8" max="10" width="29" customWidth="1"/>
-    <col min="11" max="11" width="31" customWidth="1"/>
-    <col min="12" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -751,13 +719,8 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -767,13 +730,8 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -783,13 +741,8 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -797,13 +750,8 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -813,13 +761,8 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -829,13 +772,8 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -843,13 +781,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -869,59 +802,29 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="6" t="s">
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -929,15 +832,10 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -945,195 +843,115 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>37071419</v>
+        <v>97818674</v>
       </c>
       <c r="E12" s="15">
-        <v>44186370</v>
+        <v>85638309</v>
       </c>
       <c r="F12" s="15">
-        <v>44734033</v>
+        <v>121773731</v>
       </c>
       <c r="G12" s="15">
-        <v>47857538</v>
+        <v>141091872</v>
       </c>
       <c r="H12" s="15">
-        <v>59923800</v>
-      </c>
-      <c r="I12" s="15">
-        <v>74676089</v>
-      </c>
-      <c r="J12" s="15">
-        <v>97818674</v>
-      </c>
-      <c r="K12" s="15">
-        <v>85638310</v>
-      </c>
-      <c r="L12" s="15">
-        <v>121773731</v>
-      </c>
-      <c r="M12" s="15">
-        <v>143643137</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+        <v>33881297</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
-        <v>0</v>
+        <v>530260</v>
       </c>
       <c r="E13" s="11">
-        <v>554956</v>
+        <v>127691</v>
       </c>
       <c r="F13" s="11">
-        <v>3880730</v>
+        <v>43912181</v>
       </c>
       <c r="G13" s="11">
-        <v>541194</v>
+        <v>33635967</v>
       </c>
       <c r="H13" s="11">
-        <v>465860</v>
-      </c>
-      <c r="I13" s="11">
-        <v>530260</v>
-      </c>
-      <c r="J13" s="11">
-        <v>530260</v>
-      </c>
-      <c r="K13" s="11">
-        <v>127691</v>
-      </c>
-      <c r="L13" s="11">
-        <v>43912181</v>
-      </c>
-      <c r="M13" s="11">
-        <v>33635967</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+        <v>60285955</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
-        <v>21288043</v>
+        <v>70104918</v>
       </c>
       <c r="E14" s="15">
-        <v>30408474</v>
+        <v>61600474</v>
       </c>
       <c r="F14" s="15">
-        <v>33253837</v>
+        <v>94686376</v>
       </c>
       <c r="G14" s="15">
-        <v>45525488</v>
+        <v>101682416</v>
       </c>
       <c r="H14" s="15">
-        <v>75869878</v>
-      </c>
-      <c r="I14" s="15">
-        <v>48880564</v>
-      </c>
-      <c r="J14" s="15">
-        <v>70104918</v>
-      </c>
-      <c r="K14" s="15">
-        <v>61600474</v>
-      </c>
-      <c r="L14" s="15">
-        <v>94686376</v>
-      </c>
-      <c r="M14" s="15">
-        <v>124696799</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+        <v>154680287</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
-        <v>48493135</v>
+        <v>122193192</v>
       </c>
       <c r="E15" s="11">
-        <v>69569491</v>
+        <v>137213134</v>
       </c>
       <c r="F15" s="11">
-        <v>90462850</v>
+        <v>208962154</v>
       </c>
       <c r="G15" s="11">
-        <v>73326107</v>
+        <v>204431656</v>
       </c>
       <c r="H15" s="11">
-        <v>109800942</v>
-      </c>
-      <c r="I15" s="11">
-        <v>110378881</v>
-      </c>
-      <c r="J15" s="11">
-        <v>122193192</v>
-      </c>
-      <c r="K15" s="11">
-        <v>137213134</v>
-      </c>
-      <c r="L15" s="11">
-        <v>208962154</v>
-      </c>
-      <c r="M15" s="11">
-        <v>173655349</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+        <v>219469880</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
-        <v>156711</v>
+        <v>952147</v>
       </c>
       <c r="E16" s="15">
-        <v>518770</v>
+        <v>702290</v>
       </c>
       <c r="F16" s="15">
-        <v>487052</v>
+        <v>1037916</v>
       </c>
       <c r="G16" s="15">
-        <v>229635</v>
+        <v>1912248</v>
       </c>
       <c r="H16" s="15">
-        <v>5073734</v>
-      </c>
-      <c r="I16" s="15">
-        <v>886630</v>
-      </c>
-      <c r="J16" s="15">
-        <v>952147</v>
-      </c>
-      <c r="K16" s="15">
-        <v>702290</v>
-      </c>
-      <c r="L16" s="15">
-        <v>1037916</v>
-      </c>
-      <c r="M16" s="15">
-        <v>2175907</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+        <v>3861035</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
@@ -1151,133 +969,73 @@
       <c r="H17" s="11">
         <v>0</v>
       </c>
-      <c r="I17" s="11">
-        <v>0</v>
-      </c>
-      <c r="J17" s="11">
-        <v>0</v>
-      </c>
-      <c r="K17" s="11">
-        <v>0</v>
-      </c>
-      <c r="L17" s="11">
-        <v>0</v>
-      </c>
-      <c r="M17" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
-        <v>107009308</v>
+        <v>291599191</v>
       </c>
       <c r="E18" s="17">
-        <v>145238061</v>
+        <v>285281898</v>
       </c>
       <c r="F18" s="17">
-        <v>172818502</v>
+        <v>470372358</v>
       </c>
       <c r="G18" s="17">
-        <v>167479962</v>
+        <v>482754159</v>
       </c>
       <c r="H18" s="17">
-        <v>251134214</v>
-      </c>
-      <c r="I18" s="17">
-        <v>235352424</v>
-      </c>
-      <c r="J18" s="17">
-        <v>291599191</v>
-      </c>
-      <c r="K18" s="17">
-        <v>285281899</v>
-      </c>
-      <c r="L18" s="17">
-        <v>470372358</v>
-      </c>
-      <c r="M18" s="17">
-        <v>477807159</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+        <v>472178454</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
-        <v>227941</v>
+        <v>183989</v>
       </c>
       <c r="E19" s="11">
-        <v>183728</v>
+        <v>372759</v>
       </c>
       <c r="F19" s="11">
-        <v>269047</v>
+        <v>826045</v>
       </c>
       <c r="G19" s="11">
-        <v>198975</v>
+        <v>1032703</v>
       </c>
       <c r="H19" s="11">
-        <v>460126</v>
-      </c>
-      <c r="I19" s="11">
-        <v>189921</v>
-      </c>
-      <c r="J19" s="11">
-        <v>183989</v>
-      </c>
-      <c r="K19" s="11">
-        <v>372759</v>
-      </c>
-      <c r="L19" s="11">
-        <v>826045</v>
-      </c>
-      <c r="M19" s="11">
-        <v>1032703</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+        <v>999663</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
-        <v>33000</v>
+        <v>49899226</v>
       </c>
       <c r="E20" s="15">
-        <v>33000</v>
+        <v>52048131</v>
       </c>
       <c r="F20" s="15">
-        <v>7462996</v>
+        <v>52118269</v>
       </c>
       <c r="G20" s="15">
-        <v>13170314</v>
+        <v>52118269</v>
       </c>
       <c r="H20" s="15">
-        <v>51037068</v>
-      </c>
-      <c r="I20" s="15">
-        <v>49415105</v>
-      </c>
-      <c r="J20" s="15">
-        <v>49899226</v>
-      </c>
-      <c r="K20" s="15">
-        <v>52048131</v>
-      </c>
-      <c r="L20" s="15">
-        <v>52118269</v>
-      </c>
-      <c r="M20" s="15">
-        <v>52118269</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+        <v>52118496</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
@@ -1295,241 +1053,136 @@
       <c r="H21" s="11">
         <v>0</v>
       </c>
-      <c r="I21" s="11">
-        <v>0</v>
-      </c>
-      <c r="J21" s="11">
-        <v>0</v>
-      </c>
-      <c r="K21" s="11">
-        <v>0</v>
-      </c>
-      <c r="L21" s="11">
-        <v>0</v>
-      </c>
-      <c r="M21" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
-        <v>82973649</v>
+        <v>201475182</v>
       </c>
       <c r="E22" s="15">
-        <v>88458310</v>
+        <v>232717404</v>
       </c>
       <c r="F22" s="15">
-        <v>98978787</v>
+        <v>241386632</v>
       </c>
       <c r="G22" s="15">
-        <v>111900439</v>
+        <v>249179795</v>
       </c>
       <c r="H22" s="15">
-        <v>118487467</v>
-      </c>
-      <c r="I22" s="15">
-        <v>128289940</v>
-      </c>
-      <c r="J22" s="15">
-        <v>201475182</v>
-      </c>
-      <c r="K22" s="15">
-        <v>232717404</v>
-      </c>
-      <c r="L22" s="15">
-        <v>241386632</v>
-      </c>
-      <c r="M22" s="15">
-        <v>253468380</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+        <v>244952822</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
-        <v>659877</v>
+        <v>666986</v>
       </c>
       <c r="E23" s="11">
-        <v>666117</v>
+        <v>649982</v>
       </c>
       <c r="F23" s="11">
-        <v>665821</v>
+        <v>333501</v>
       </c>
       <c r="G23" s="11">
-        <v>669112</v>
+        <v>652493</v>
       </c>
       <c r="H23" s="11">
-        <v>668076</v>
-      </c>
-      <c r="I23" s="11">
-        <v>667846</v>
-      </c>
-      <c r="J23" s="11">
-        <v>666986</v>
-      </c>
-      <c r="K23" s="11">
-        <v>649982</v>
-      </c>
-      <c r="L23" s="11">
-        <v>333501</v>
-      </c>
-      <c r="M23" s="11">
-        <v>332493</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+        <v>657485</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="K24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="L24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="M24" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
-        <v>3038929</v>
+        <v>4793487</v>
       </c>
       <c r="E25" s="11">
-        <v>3131300</v>
+        <v>4866010</v>
       </c>
       <c r="F25" s="11">
-        <v>3253905</v>
+        <v>8412673</v>
       </c>
       <c r="G25" s="11">
-        <v>2634541</v>
+        <v>7684565</v>
       </c>
       <c r="H25" s="11">
-        <v>3451420</v>
-      </c>
-      <c r="I25" s="11">
-        <v>3272373</v>
-      </c>
-      <c r="J25" s="11">
-        <v>4793487</v>
-      </c>
-      <c r="K25" s="11">
-        <v>4866010</v>
-      </c>
-      <c r="L25" s="11">
-        <v>8412673</v>
-      </c>
-      <c r="M25" s="11">
-        <v>5133579</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+        <v>7734414</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
-        <v>86933396</v>
+        <v>257018870</v>
       </c>
       <c r="E26" s="17">
-        <v>92472455</v>
+        <v>290654286</v>
       </c>
       <c r="F26" s="17">
-        <v>110630556</v>
+        <v>303077120</v>
       </c>
       <c r="G26" s="17">
-        <v>128573381</v>
+        <v>310667825</v>
       </c>
       <c r="H26" s="17">
-        <v>174104157</v>
-      </c>
-      <c r="I26" s="17">
-        <v>181835185</v>
-      </c>
-      <c r="J26" s="17">
-        <v>257018870</v>
-      </c>
-      <c r="K26" s="17">
-        <v>290654286</v>
-      </c>
-      <c r="L26" s="17">
-        <v>303077120</v>
-      </c>
-      <c r="M26" s="17">
-        <v>312085424</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+        <v>306462880</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="18" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
-        <v>193942704</v>
+        <v>548618061</v>
       </c>
       <c r="E27" s="19">
-        <v>237710516</v>
+        <v>575936184</v>
       </c>
       <c r="F27" s="19">
-        <v>283449058</v>
+        <v>773449478</v>
       </c>
       <c r="G27" s="19">
-        <v>296053343</v>
+        <v>793421984</v>
       </c>
       <c r="H27" s="19">
-        <v>425238371</v>
-      </c>
-      <c r="I27" s="19">
-        <v>417187609</v>
-      </c>
-      <c r="J27" s="19">
-        <v>548618061</v>
-      </c>
-      <c r="K27" s="19">
-        <v>575936185</v>
-      </c>
-      <c r="L27" s="19">
-        <v>773449478</v>
-      </c>
-      <c r="M27" s="19">
-        <v>789892583</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+        <v>778641334</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -1537,267 +1190,157 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
-        <v>49213033</v>
+        <v>97544700</v>
       </c>
       <c r="E29" s="15">
-        <v>71174520</v>
+        <v>76919144</v>
       </c>
       <c r="F29" s="15">
-        <v>68933052</v>
+        <v>61912635</v>
       </c>
       <c r="G29" s="15">
-        <v>34328726</v>
+        <v>49332427</v>
       </c>
       <c r="H29" s="15">
-        <v>132524679</v>
-      </c>
-      <c r="I29" s="15">
-        <v>101018869</v>
-      </c>
-      <c r="J29" s="15">
-        <v>97544700</v>
-      </c>
-      <c r="K29" s="15">
-        <v>76919144</v>
-      </c>
-      <c r="L29" s="15">
-        <v>61912635</v>
-      </c>
-      <c r="M29" s="15">
-        <v>50756335</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+        <v>39797280</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M30" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
-        <v>1276420</v>
+        <v>3382332</v>
       </c>
       <c r="E31" s="15">
-        <v>2620672</v>
+        <v>3186450</v>
       </c>
       <c r="F31" s="15">
-        <v>1831428</v>
+        <v>6149004</v>
       </c>
       <c r="G31" s="15">
-        <v>2357210</v>
+        <v>1652520</v>
       </c>
       <c r="H31" s="15">
-        <v>2337312</v>
-      </c>
-      <c r="I31" s="15">
-        <v>2518422</v>
-      </c>
-      <c r="J31" s="15">
-        <v>3382332</v>
-      </c>
-      <c r="K31" s="15">
-        <v>3186452</v>
-      </c>
-      <c r="L31" s="15">
-        <v>6149004</v>
-      </c>
-      <c r="M31" s="15">
-        <v>1934114</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+        <v>5599765</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
-        <v>8006064</v>
+        <v>23147057</v>
       </c>
       <c r="E32" s="11">
-        <v>9752733</v>
+        <v>27316446</v>
       </c>
       <c r="F32" s="11">
-        <v>19116913</v>
+        <v>56493794</v>
       </c>
       <c r="G32" s="11">
-        <v>16084918</v>
+        <v>42565752</v>
       </c>
       <c r="H32" s="11">
-        <v>20035680</v>
-      </c>
-      <c r="I32" s="11">
-        <v>11265651</v>
-      </c>
-      <c r="J32" s="11">
-        <v>23147057</v>
-      </c>
-      <c r="K32" s="11">
-        <v>27316446</v>
-      </c>
-      <c r="L32" s="11">
-        <v>56493794</v>
-      </c>
-      <c r="M32" s="11">
-        <v>41719828</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+        <v>51079905</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
-        <v>20427031</v>
+        <v>38769044</v>
       </c>
       <c r="E33" s="15">
-        <v>17335392</v>
+        <v>292903</v>
       </c>
       <c r="F33" s="15">
-        <v>10660210</v>
+        <v>122989</v>
       </c>
       <c r="G33" s="15">
-        <v>193342</v>
+        <v>92503145</v>
       </c>
       <c r="H33" s="15">
-        <v>90631269</v>
-      </c>
-      <c r="I33" s="15">
-        <v>65488491</v>
-      </c>
-      <c r="J33" s="15">
-        <v>38769044</v>
-      </c>
-      <c r="K33" s="15">
-        <v>292903</v>
-      </c>
-      <c r="L33" s="15">
-        <v>122989</v>
-      </c>
-      <c r="M33" s="15">
-        <v>92503145</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+        <v>14670947</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
-        <v>0</v>
+        <v>53550767</v>
       </c>
       <c r="E34" s="11">
-        <v>0</v>
+        <v>56253960</v>
       </c>
       <c r="F34" s="11">
-        <v>2000000</v>
+        <v>100808151</v>
       </c>
       <c r="G34" s="11">
-        <v>2088767</v>
+        <v>101716868</v>
       </c>
       <c r="H34" s="11">
-        <v>8000000</v>
-      </c>
-      <c r="I34" s="11">
-        <v>22816164</v>
-      </c>
-      <c r="J34" s="11">
-        <v>53550767</v>
-      </c>
-      <c r="K34" s="11">
-        <v>56253960</v>
-      </c>
-      <c r="L34" s="11">
-        <v>100808151</v>
-      </c>
-      <c r="M34" s="11">
-        <v>101813559</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+        <v>101132414</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
-        <v>561195</v>
+        <v>10259986</v>
       </c>
       <c r="E35" s="15">
-        <v>814753</v>
+        <v>8489811</v>
       </c>
       <c r="F35" s="15">
-        <v>586393</v>
+        <v>9124554</v>
       </c>
       <c r="G35" s="15">
-        <v>1154318</v>
+        <v>8187439</v>
       </c>
       <c r="H35" s="15">
-        <v>622077</v>
-      </c>
-      <c r="I35" s="15">
-        <v>6045032</v>
-      </c>
-      <c r="J35" s="15">
-        <v>10259986</v>
-      </c>
-      <c r="K35" s="15">
-        <v>8489811</v>
-      </c>
-      <c r="L35" s="15">
-        <v>9124554</v>
-      </c>
-      <c r="M35" s="15">
-        <v>8592028</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+        <v>8701823</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11">
@@ -1815,277 +1358,157 @@
       <c r="H36" s="11">
         <v>0</v>
       </c>
-      <c r="I36" s="11">
-        <v>0</v>
-      </c>
-      <c r="J36" s="11">
-        <v>0</v>
-      </c>
-      <c r="K36" s="11">
-        <v>0</v>
-      </c>
-      <c r="L36" s="11">
-        <v>0</v>
-      </c>
-      <c r="M36" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
-        <v>79483743</v>
+        <v>226653886</v>
       </c>
       <c r="E37" s="17">
-        <v>101698070</v>
+        <v>172458714</v>
       </c>
       <c r="F37" s="17">
-        <v>103127996</v>
+        <v>234611127</v>
       </c>
       <c r="G37" s="17">
-        <v>56207281</v>
+        <v>295958151</v>
       </c>
       <c r="H37" s="17">
-        <v>254151017</v>
-      </c>
-      <c r="I37" s="17">
-        <v>209152629</v>
-      </c>
-      <c r="J37" s="17">
-        <v>226653886</v>
-      </c>
-      <c r="K37" s="17">
-        <v>172458716</v>
-      </c>
-      <c r="L37" s="17">
-        <v>234611127</v>
-      </c>
-      <c r="M37" s="17">
-        <v>297319009</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+        <v>220982134</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
-        <v>4179920</v>
+        <v>22675341</v>
       </c>
       <c r="E38" s="11">
-        <v>4891889</v>
+        <v>21091343</v>
       </c>
       <c r="F38" s="11">
-        <v>4773710</v>
+        <v>22453186</v>
       </c>
       <c r="G38" s="11">
-        <v>9905491</v>
+        <v>25271784</v>
       </c>
       <c r="H38" s="11">
-        <v>9905491</v>
-      </c>
-      <c r="I38" s="11">
-        <v>22954964</v>
-      </c>
-      <c r="J38" s="11">
-        <v>22675341</v>
-      </c>
-      <c r="K38" s="11">
-        <v>21091342</v>
-      </c>
-      <c r="L38" s="11">
-        <v>22453186</v>
-      </c>
-      <c r="M38" s="11">
-        <v>25271784</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+        <v>31578862</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="I39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="J39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="K39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="L39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="M39" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
-        <v>0</v>
+        <v>7557600</v>
       </c>
       <c r="E40" s="11">
-        <v>2521967</v>
+        <v>5755395</v>
       </c>
       <c r="F40" s="11">
-        <v>4299016</v>
+        <v>8351298</v>
       </c>
       <c r="G40" s="11">
-        <v>2876066</v>
+        <v>7189399</v>
       </c>
       <c r="H40" s="11">
-        <v>3059518</v>
-      </c>
-      <c r="I40" s="11">
-        <v>6242970</v>
-      </c>
-      <c r="J40" s="11">
-        <v>7557600</v>
-      </c>
-      <c r="K40" s="11">
-        <v>5755395</v>
-      </c>
-      <c r="L40" s="11">
-        <v>8351298</v>
-      </c>
-      <c r="M40" s="11">
-        <v>7092708</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+        <v>8372734</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>1678042</v>
+        <v>2710126</v>
       </c>
       <c r="E41" s="15">
-        <v>1881102</v>
+        <v>2684292</v>
       </c>
       <c r="F41" s="15">
-        <v>1881102</v>
+        <v>2772114</v>
       </c>
       <c r="G41" s="15">
-        <v>2083400</v>
+        <v>1480218</v>
       </c>
       <c r="H41" s="15">
-        <v>2140563</v>
-      </c>
-      <c r="I41" s="15">
-        <v>2871267</v>
-      </c>
-      <c r="J41" s="15">
-        <v>2710126</v>
-      </c>
-      <c r="K41" s="15">
-        <v>2684292</v>
-      </c>
-      <c r="L41" s="15">
-        <v>2772114</v>
-      </c>
-      <c r="M41" s="15">
-        <v>1480218</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+        <v>3241349</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
-        <v>5857962</v>
+        <v>32943067</v>
       </c>
       <c r="E42" s="19">
-        <v>9294958</v>
+        <v>29531030</v>
       </c>
       <c r="F42" s="19">
-        <v>10953828</v>
+        <v>33576598</v>
       </c>
       <c r="G42" s="19">
-        <v>14864957</v>
+        <v>33941401</v>
       </c>
       <c r="H42" s="19">
-        <v>15105572</v>
-      </c>
-      <c r="I42" s="19">
-        <v>32069201</v>
-      </c>
-      <c r="J42" s="19">
-        <v>32943067</v>
-      </c>
-      <c r="K42" s="19">
-        <v>29531029</v>
-      </c>
-      <c r="L42" s="19">
-        <v>33576598</v>
-      </c>
-      <c r="M42" s="19">
-        <v>33844710</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+        <v>43192945</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
-        <v>85341705</v>
+        <v>259596953</v>
       </c>
       <c r="E43" s="17">
-        <v>110993028</v>
+        <v>201989744</v>
       </c>
       <c r="F43" s="17">
-        <v>114081824</v>
+        <v>268187725</v>
       </c>
       <c r="G43" s="17">
-        <v>71072238</v>
+        <v>329899552</v>
       </c>
       <c r="H43" s="17">
-        <v>269256589</v>
-      </c>
-      <c r="I43" s="17">
-        <v>241221830</v>
-      </c>
-      <c r="J43" s="17">
-        <v>259596953</v>
-      </c>
-      <c r="K43" s="17">
-        <v>201989745</v>
-      </c>
-      <c r="L43" s="17">
-        <v>268187725</v>
-      </c>
-      <c r="M43" s="17">
-        <v>331163719</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+        <v>264175079</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -2093,51 +1516,31 @@
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
-        <v>51000000</v>
+        <v>76000000</v>
       </c>
       <c r="E45" s="15">
-        <v>51000000</v>
+        <v>139474458</v>
       </c>
       <c r="F45" s="15">
-        <v>76000000</v>
+        <v>139474458</v>
       </c>
       <c r="G45" s="15">
-        <v>76000000</v>
+        <v>190000000</v>
       </c>
       <c r="H45" s="15">
-        <v>76000000</v>
-      </c>
-      <c r="I45" s="15">
-        <v>76000000</v>
-      </c>
-      <c r="J45" s="15">
-        <v>76000000</v>
-      </c>
-      <c r="K45" s="15">
-        <v>139474458</v>
-      </c>
-      <c r="L45" s="15">
-        <v>139474458</v>
-      </c>
-      <c r="M45" s="15">
         <v>190000000</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11">
@@ -2155,25 +1558,10 @@
       <c r="H46" s="11">
         <v>0</v>
       </c>
-      <c r="I46" s="11">
-        <v>0</v>
-      </c>
-      <c r="J46" s="11">
-        <v>0</v>
-      </c>
-      <c r="K46" s="11">
-        <v>0</v>
-      </c>
-      <c r="L46" s="11">
-        <v>0</v>
-      </c>
-      <c r="M46" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
@@ -2191,61 +1579,31 @@
       <c r="H47" s="15">
         <v>0</v>
       </c>
-      <c r="I47" s="15">
-        <v>0</v>
-      </c>
-      <c r="J47" s="15">
-        <v>0</v>
-      </c>
-      <c r="K47" s="15">
-        <v>0</v>
-      </c>
-      <c r="L47" s="15">
-        <v>0</v>
-      </c>
-      <c r="M47" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
-        <v>0</v>
+        <v>-11634140</v>
       </c>
       <c r="E48" s="11">
-        <v>0</v>
+        <v>-9701628</v>
       </c>
       <c r="F48" s="11">
-        <v>0</v>
+        <v>-9701627</v>
       </c>
       <c r="G48" s="11">
-        <v>-6402626</v>
+        <v>-9706560</v>
       </c>
       <c r="H48" s="11">
-        <v>-10324992</v>
-      </c>
-      <c r="I48" s="11">
-        <v>-10293633</v>
-      </c>
-      <c r="J48" s="11">
-        <v>-11634140</v>
-      </c>
-      <c r="K48" s="11">
-        <v>-9701627</v>
-      </c>
-      <c r="L48" s="11">
-        <v>-9701627</v>
-      </c>
-      <c r="M48" s="11">
-        <v>-9706560</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-10023211</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15">
@@ -2263,68 +1621,38 @@
       <c r="H49" s="15">
         <v>0</v>
       </c>
-      <c r="I49" s="15">
-        <v>0</v>
-      </c>
-      <c r="J49" s="15">
-        <v>0</v>
-      </c>
-      <c r="K49" s="15">
-        <v>0</v>
-      </c>
-      <c r="L49" s="15">
-        <v>0</v>
-      </c>
-      <c r="M49" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
-        <v>4692034</v>
+        <v>7600000</v>
       </c>
       <c r="E50" s="11">
-        <v>3426232</v>
+        <v>13947446</v>
       </c>
       <c r="F50" s="11">
-        <v>3426232</v>
+        <v>13947446</v>
       </c>
       <c r="G50" s="11">
-        <v>7600000</v>
+        <v>19000000</v>
       </c>
       <c r="H50" s="11">
-        <v>7600000</v>
-      </c>
-      <c r="I50" s="11">
-        <v>7600000</v>
-      </c>
-      <c r="J50" s="11">
-        <v>7600000</v>
-      </c>
-      <c r="K50" s="11">
-        <v>13947446</v>
-      </c>
-      <c r="L50" s="11">
-        <v>13947446</v>
-      </c>
-      <c r="M50" s="11">
         <v>19000000</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15">
-        <v>8622050</v>
+        <v>0</v>
       </c>
       <c r="E51" s="15">
-        <v>8622050</v>
+        <v>0</v>
       </c>
       <c r="F51" s="15">
         <v>0</v>
@@ -2335,133 +1663,73 @@
       <c r="H51" s="15">
         <v>0</v>
       </c>
-      <c r="I51" s="15">
-        <v>0</v>
-      </c>
-      <c r="J51" s="15">
-        <v>0</v>
-      </c>
-      <c r="K51" s="15">
-        <v>0</v>
-      </c>
-      <c r="L51" s="15">
-        <v>0</v>
-      </c>
-      <c r="M51" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M52" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
-        <v>0</v>
+        <v>63474458</v>
       </c>
       <c r="E53" s="15">
-        <v>0</v>
+        <v>13509278</v>
       </c>
       <c r="F53" s="15">
-        <v>0</v>
+        <v>13509278</v>
       </c>
       <c r="G53" s="15">
-        <v>0</v>
+        <v>13509278</v>
       </c>
       <c r="H53" s="15">
-        <v>0</v>
-      </c>
-      <c r="I53" s="15">
-        <v>0</v>
-      </c>
-      <c r="J53" s="15">
-        <v>63474458</v>
-      </c>
-      <c r="K53" s="15">
         <v>13509278</v>
       </c>
-      <c r="L53" s="15">
-        <v>13509278</v>
-      </c>
-      <c r="M53" s="15">
-        <v>13509278</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M54" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15">
@@ -2479,131 +1747,71 @@
       <c r="H55" s="15">
         <v>0</v>
       </c>
-      <c r="I55" s="15">
-        <v>0</v>
-      </c>
-      <c r="J55" s="15">
-        <v>0</v>
-      </c>
-      <c r="K55" s="15">
-        <v>0</v>
-      </c>
-      <c r="L55" s="15">
-        <v>0</v>
-      </c>
-      <c r="M55" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
-        <v>44286915</v>
+        <v>153580790</v>
       </c>
       <c r="E56" s="11">
-        <v>63669206</v>
+        <v>216716886</v>
       </c>
       <c r="F56" s="11">
-        <v>89941002</v>
+        <v>348032198</v>
       </c>
       <c r="G56" s="11">
-        <v>147783731</v>
+        <v>250719714</v>
       </c>
       <c r="H56" s="11">
-        <v>82706774</v>
-      </c>
-      <c r="I56" s="11">
-        <v>102659412</v>
-      </c>
-      <c r="J56" s="11">
-        <v>153580790</v>
-      </c>
-      <c r="K56" s="11">
-        <v>216716885</v>
-      </c>
-      <c r="L56" s="11">
-        <v>348032198</v>
-      </c>
-      <c r="M56" s="11">
-        <v>245926146</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+        <v>301980188</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="16" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
-        <v>108600999</v>
+        <v>289021108</v>
       </c>
       <c r="E57" s="17">
-        <v>126717488</v>
+        <v>373946440</v>
       </c>
       <c r="F57" s="17">
-        <v>169367234</v>
+        <v>505261753</v>
       </c>
       <c r="G57" s="17">
-        <v>224981105</v>
+        <v>463522432</v>
       </c>
       <c r="H57" s="17">
-        <v>155981782</v>
-      </c>
-      <c r="I57" s="17">
-        <v>175965779</v>
-      </c>
-      <c r="J57" s="17">
-        <v>289021108</v>
-      </c>
-      <c r="K57" s="17">
-        <v>373946440</v>
-      </c>
-      <c r="L57" s="17">
-        <v>505261753</v>
-      </c>
-      <c r="M57" s="17">
-        <v>458728864</v>
-      </c>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
+        <v>514466255</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="18" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
-        <v>193942704</v>
+        <v>548618061</v>
       </c>
       <c r="E58" s="19">
-        <v>237710516</v>
+        <v>575936184</v>
       </c>
       <c r="F58" s="19">
-        <v>283449058</v>
+        <v>773449478</v>
       </c>
       <c r="G58" s="19">
-        <v>296053343</v>
+        <v>793421984</v>
       </c>
       <c r="H58" s="19">
-        <v>425238371</v>
-      </c>
-      <c r="I58" s="19">
-        <v>417187609</v>
-      </c>
-      <c r="J58" s="19">
-        <v>548618061</v>
-      </c>
-      <c r="K58" s="19">
-        <v>575936185</v>
-      </c>
-      <c r="L58" s="19">
-        <v>773449478</v>
-      </c>
-      <c r="M58" s="19">
-        <v>789892583</v>
-      </c>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
+        <v>778641334</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2611,11 +1819,6 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/palayesh/shapna/balancesheet/quarterly.xlsx
+++ b/database/industries/palayesh/shapna/balancesheet/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\palayesh\shapna\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\palayesh\shapna\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F22259-5DBB-494E-8A91-28803830C169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DBF677-1A2E-4353-A945-6A32598E53DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,21 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -53,6 +68,21 @@
   </si>
   <si>
     <t>تاریخ انتشار</t>
+  </si>
+  <si>
+    <t>1399-09-30 (2)</t>
+  </si>
+  <si>
+    <t>1399-11-28</t>
+  </si>
+  <si>
+    <t>1401-04-21 (10)</t>
+  </si>
+  <si>
+    <t>1400-07-21</t>
+  </si>
+  <si>
+    <t>1400-09-18 (3)</t>
   </si>
   <si>
     <t>1400-10-29</t>
@@ -698,20 +728,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H59"/>
+  <dimension ref="B1:M59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="4" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="31" customWidth="1"/>
+    <col min="11" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -719,8 +751,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -730,8 +767,13 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -741,8 +783,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -750,8 +797,13 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -761,8 +813,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -772,8 +829,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -781,8 +843,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -802,29 +869,59 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -832,10 +929,15 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -843,115 +945,195 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
+        <v>44186370</v>
+      </c>
+      <c r="E12" s="15">
+        <v>44734033</v>
+      </c>
+      <c r="F12" s="15">
+        <v>47857538</v>
+      </c>
+      <c r="G12" s="15">
+        <v>59923800</v>
+      </c>
+      <c r="H12" s="15">
+        <v>74676089</v>
+      </c>
+      <c r="I12" s="15">
         <v>97818674</v>
       </c>
-      <c r="E12" s="15">
+      <c r="J12" s="15">
         <v>85638309</v>
       </c>
-      <c r="F12" s="15">
+      <c r="K12" s="15">
         <v>121773731</v>
       </c>
-      <c r="G12" s="15">
+      <c r="L12" s="15">
         <v>141091872</v>
       </c>
-      <c r="H12" s="15">
+      <c r="M12" s="15">
         <v>33881297</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
+        <v>554956</v>
+      </c>
+      <c r="E13" s="11">
+        <v>3880730</v>
+      </c>
+      <c r="F13" s="11">
+        <v>541194</v>
+      </c>
+      <c r="G13" s="11">
+        <v>465860</v>
+      </c>
+      <c r="H13" s="11">
         <v>530260</v>
       </c>
-      <c r="E13" s="11">
+      <c r="I13" s="11">
+        <v>530260</v>
+      </c>
+      <c r="J13" s="11">
         <v>127691</v>
       </c>
-      <c r="F13" s="11">
+      <c r="K13" s="11">
         <v>43912181</v>
       </c>
-      <c r="G13" s="11">
+      <c r="L13" s="11">
         <v>33635967</v>
       </c>
-      <c r="H13" s="11">
+      <c r="M13" s="11">
         <v>60285955</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
+        <v>30408474</v>
+      </c>
+      <c r="E14" s="15">
+        <v>33253837</v>
+      </c>
+      <c r="F14" s="15">
+        <v>45525488</v>
+      </c>
+      <c r="G14" s="15">
+        <v>75869878</v>
+      </c>
+      <c r="H14" s="15">
+        <v>48880564</v>
+      </c>
+      <c r="I14" s="15">
         <v>70104918</v>
       </c>
-      <c r="E14" s="15">
+      <c r="J14" s="15">
         <v>61600474</v>
       </c>
-      <c r="F14" s="15">
+      <c r="K14" s="15">
         <v>94686376</v>
       </c>
-      <c r="G14" s="15">
+      <c r="L14" s="15">
         <v>101682416</v>
       </c>
-      <c r="H14" s="15">
+      <c r="M14" s="15">
         <v>154680287</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
+        <v>69569491</v>
+      </c>
+      <c r="E15" s="11">
+        <v>90462850</v>
+      </c>
+      <c r="F15" s="11">
+        <v>73326107</v>
+      </c>
+      <c r="G15" s="11">
+        <v>109800942</v>
+      </c>
+      <c r="H15" s="11">
+        <v>110378881</v>
+      </c>
+      <c r="I15" s="11">
         <v>122193192</v>
       </c>
-      <c r="E15" s="11">
+      <c r="J15" s="11">
         <v>137213134</v>
       </c>
-      <c r="F15" s="11">
+      <c r="K15" s="11">
         <v>208962154</v>
       </c>
-      <c r="G15" s="11">
+      <c r="L15" s="11">
         <v>204431656</v>
       </c>
-      <c r="H15" s="11">
+      <c r="M15" s="11">
         <v>219469880</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
+        <v>518770</v>
+      </c>
+      <c r="E16" s="15">
+        <v>487052</v>
+      </c>
+      <c r="F16" s="15">
+        <v>229635</v>
+      </c>
+      <c r="G16" s="15">
+        <v>5073734</v>
+      </c>
+      <c r="H16" s="15">
+        <v>886630</v>
+      </c>
+      <c r="I16" s="15">
         <v>952147</v>
       </c>
-      <c r="E16" s="15">
+      <c r="J16" s="15">
         <v>702290</v>
       </c>
-      <c r="F16" s="15">
+      <c r="K16" s="15">
         <v>1037916</v>
       </c>
-      <c r="G16" s="15">
+      <c r="L16" s="15">
         <v>1912248</v>
       </c>
-      <c r="H16" s="15">
+      <c r="M16" s="15">
         <v>3861035</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
@@ -969,73 +1151,133 @@
       <c r="H17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I17" s="11">
+        <v>0</v>
+      </c>
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
+        <v>145238061</v>
+      </c>
+      <c r="E18" s="17">
+        <v>172818502</v>
+      </c>
+      <c r="F18" s="17">
+        <v>167479962</v>
+      </c>
+      <c r="G18" s="17">
+        <v>251134214</v>
+      </c>
+      <c r="H18" s="17">
+        <v>235352424</v>
+      </c>
+      <c r="I18" s="17">
         <v>291599191</v>
       </c>
-      <c r="E18" s="17">
+      <c r="J18" s="17">
         <v>285281898</v>
       </c>
-      <c r="F18" s="17">
+      <c r="K18" s="17">
         <v>470372358</v>
       </c>
-      <c r="G18" s="17">
+      <c r="L18" s="17">
         <v>482754159</v>
       </c>
-      <c r="H18" s="17">
+      <c r="M18" s="17">
         <v>472178454</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
+        <v>183728</v>
+      </c>
+      <c r="E19" s="11">
+        <v>269047</v>
+      </c>
+      <c r="F19" s="11">
+        <v>198975</v>
+      </c>
+      <c r="G19" s="11">
+        <v>460126</v>
+      </c>
+      <c r="H19" s="11">
+        <v>189921</v>
+      </c>
+      <c r="I19" s="11">
         <v>183989</v>
       </c>
-      <c r="E19" s="11">
+      <c r="J19" s="11">
         <v>372759</v>
       </c>
-      <c r="F19" s="11">
+      <c r="K19" s="11">
         <v>826045</v>
       </c>
-      <c r="G19" s="11">
+      <c r="L19" s="11">
         <v>1032703</v>
       </c>
-      <c r="H19" s="11">
+      <c r="M19" s="11">
         <v>999663</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
+        <v>33000</v>
+      </c>
+      <c r="E20" s="15">
+        <v>7462996</v>
+      </c>
+      <c r="F20" s="15">
+        <v>13170314</v>
+      </c>
+      <c r="G20" s="15">
+        <v>51037068</v>
+      </c>
+      <c r="H20" s="15">
+        <v>49415105</v>
+      </c>
+      <c r="I20" s="15">
         <v>49899226</v>
       </c>
-      <c r="E20" s="15">
+      <c r="J20" s="15">
         <v>52048131</v>
       </c>
-      <c r="F20" s="15">
+      <c r="K20" s="15">
         <v>52118269</v>
       </c>
-      <c r="G20" s="15">
+      <c r="L20" s="15">
         <v>52118269</v>
       </c>
-      <c r="H20" s="15">
+      <c r="M20" s="15">
         <v>52118496</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
@@ -1053,136 +1295,241 @@
       <c r="H21" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I21" s="11">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
+        <v>0</v>
+      </c>
+      <c r="K21" s="11">
+        <v>0</v>
+      </c>
+      <c r="L21" s="11">
+        <v>0</v>
+      </c>
+      <c r="M21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
+        <v>88458310</v>
+      </c>
+      <c r="E22" s="15">
+        <v>98978787</v>
+      </c>
+      <c r="F22" s="15">
+        <v>111900439</v>
+      </c>
+      <c r="G22" s="15">
+        <v>118487467</v>
+      </c>
+      <c r="H22" s="15">
+        <v>128289940</v>
+      </c>
+      <c r="I22" s="15">
         <v>201475182</v>
       </c>
-      <c r="E22" s="15">
+      <c r="J22" s="15">
         <v>232717404</v>
       </c>
-      <c r="F22" s="15">
+      <c r="K22" s="15">
         <v>241386632</v>
       </c>
-      <c r="G22" s="15">
+      <c r="L22" s="15">
         <v>249179795</v>
       </c>
-      <c r="H22" s="15">
+      <c r="M22" s="15">
         <v>244952822</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
+        <v>666117</v>
+      </c>
+      <c r="E23" s="11">
+        <v>665821</v>
+      </c>
+      <c r="F23" s="11">
+        <v>669112</v>
+      </c>
+      <c r="G23" s="11">
+        <v>668076</v>
+      </c>
+      <c r="H23" s="11">
+        <v>667846</v>
+      </c>
+      <c r="I23" s="11">
         <v>666986</v>
       </c>
-      <c r="E23" s="11">
+      <c r="J23" s="11">
         <v>649982</v>
       </c>
-      <c r="F23" s="11">
+      <c r="K23" s="11">
         <v>333501</v>
       </c>
-      <c r="G23" s="11">
+      <c r="L23" s="11">
         <v>652493</v>
       </c>
-      <c r="H23" s="11">
+      <c r="M23" s="11">
         <v>657485</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M24" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
+        <v>3131300</v>
+      </c>
+      <c r="E25" s="11">
+        <v>3253905</v>
+      </c>
+      <c r="F25" s="11">
+        <v>2634541</v>
+      </c>
+      <c r="G25" s="11">
+        <v>3451420</v>
+      </c>
+      <c r="H25" s="11">
+        <v>3272373</v>
+      </c>
+      <c r="I25" s="11">
         <v>4793487</v>
       </c>
-      <c r="E25" s="11">
+      <c r="J25" s="11">
         <v>4866010</v>
       </c>
-      <c r="F25" s="11">
+      <c r="K25" s="11">
         <v>8412673</v>
       </c>
-      <c r="G25" s="11">
+      <c r="L25" s="11">
         <v>7684565</v>
       </c>
-      <c r="H25" s="11">
+      <c r="M25" s="11">
         <v>7734414</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
+        <v>92472455</v>
+      </c>
+      <c r="E26" s="17">
+        <v>110630556</v>
+      </c>
+      <c r="F26" s="17">
+        <v>128573381</v>
+      </c>
+      <c r="G26" s="17">
+        <v>174104157</v>
+      </c>
+      <c r="H26" s="17">
+        <v>181835185</v>
+      </c>
+      <c r="I26" s="17">
         <v>257018870</v>
       </c>
-      <c r="E26" s="17">
+      <c r="J26" s="17">
         <v>290654286</v>
       </c>
-      <c r="F26" s="17">
+      <c r="K26" s="17">
         <v>303077120</v>
       </c>
-      <c r="G26" s="17">
+      <c r="L26" s="17">
         <v>310667825</v>
       </c>
-      <c r="H26" s="17">
+      <c r="M26" s="17">
         <v>306462880</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
+        <v>237710516</v>
+      </c>
+      <c r="E27" s="19">
+        <v>283449058</v>
+      </c>
+      <c r="F27" s="19">
+        <v>296053343</v>
+      </c>
+      <c r="G27" s="19">
+        <v>425238371</v>
+      </c>
+      <c r="H27" s="19">
+        <v>417187609</v>
+      </c>
+      <c r="I27" s="19">
         <v>548618061</v>
       </c>
-      <c r="E27" s="19">
+      <c r="J27" s="19">
         <v>575936184</v>
       </c>
-      <c r="F27" s="19">
+      <c r="K27" s="19">
         <v>773449478</v>
       </c>
-      <c r="G27" s="19">
+      <c r="L27" s="19">
         <v>793421984</v>
       </c>
-      <c r="H27" s="19">
+      <c r="M27" s="19">
         <v>778641334</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -1190,157 +1537,267 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
+        <v>71174520</v>
+      </c>
+      <c r="E29" s="15">
+        <v>68933052</v>
+      </c>
+      <c r="F29" s="15">
+        <v>34328726</v>
+      </c>
+      <c r="G29" s="15">
+        <v>132524679</v>
+      </c>
+      <c r="H29" s="15">
+        <v>101018869</v>
+      </c>
+      <c r="I29" s="15">
         <v>97544700</v>
       </c>
-      <c r="E29" s="15">
+      <c r="J29" s="15">
         <v>76919144</v>
       </c>
-      <c r="F29" s="15">
+      <c r="K29" s="15">
         <v>61912635</v>
       </c>
-      <c r="G29" s="15">
+      <c r="L29" s="15">
         <v>49332427</v>
       </c>
-      <c r="H29" s="15">
+      <c r="M29" s="15">
         <v>39797280</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
+        <v>2620672</v>
+      </c>
+      <c r="E31" s="15">
+        <v>1831428</v>
+      </c>
+      <c r="F31" s="15">
+        <v>2357210</v>
+      </c>
+      <c r="G31" s="15">
+        <v>2337312</v>
+      </c>
+      <c r="H31" s="15">
+        <v>2518422</v>
+      </c>
+      <c r="I31" s="15">
         <v>3382332</v>
       </c>
-      <c r="E31" s="15">
+      <c r="J31" s="15">
         <v>3186450</v>
       </c>
-      <c r="F31" s="15">
+      <c r="K31" s="15">
         <v>6149004</v>
       </c>
-      <c r="G31" s="15">
+      <c r="L31" s="15">
         <v>1652520</v>
       </c>
-      <c r="H31" s="15">
+      <c r="M31" s="15">
         <v>5599765</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
+        <v>9752733</v>
+      </c>
+      <c r="E32" s="11">
+        <v>19116913</v>
+      </c>
+      <c r="F32" s="11">
+        <v>16084918</v>
+      </c>
+      <c r="G32" s="11">
+        <v>20035680</v>
+      </c>
+      <c r="H32" s="11">
+        <v>11265651</v>
+      </c>
+      <c r="I32" s="11">
         <v>23147057</v>
       </c>
-      <c r="E32" s="11">
+      <c r="J32" s="11">
         <v>27316446</v>
       </c>
-      <c r="F32" s="11">
+      <c r="K32" s="11">
         <v>56493794</v>
       </c>
-      <c r="G32" s="11">
+      <c r="L32" s="11">
         <v>42565752</v>
       </c>
-      <c r="H32" s="11">
+      <c r="M32" s="11">
         <v>51079905</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
+        <v>17335392</v>
+      </c>
+      <c r="E33" s="15">
+        <v>10660210</v>
+      </c>
+      <c r="F33" s="15">
+        <v>193342</v>
+      </c>
+      <c r="G33" s="15">
+        <v>90631269</v>
+      </c>
+      <c r="H33" s="15">
+        <v>65488491</v>
+      </c>
+      <c r="I33" s="15">
         <v>38769044</v>
       </c>
-      <c r="E33" s="15">
+      <c r="J33" s="15">
         <v>292903</v>
       </c>
-      <c r="F33" s="15">
+      <c r="K33" s="15">
         <v>122989</v>
       </c>
-      <c r="G33" s="15">
+      <c r="L33" s="15">
         <v>92503145</v>
       </c>
-      <c r="H33" s="15">
+      <c r="M33" s="15">
         <v>14670947</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
+        <v>0</v>
+      </c>
+      <c r="E34" s="11">
+        <v>2000000</v>
+      </c>
+      <c r="F34" s="11">
+        <v>2088767</v>
+      </c>
+      <c r="G34" s="11">
+        <v>8000000</v>
+      </c>
+      <c r="H34" s="11">
+        <v>22816164</v>
+      </c>
+      <c r="I34" s="11">
         <v>53550767</v>
       </c>
-      <c r="E34" s="11">
+      <c r="J34" s="11">
         <v>56253960</v>
       </c>
-      <c r="F34" s="11">
+      <c r="K34" s="11">
         <v>100808151</v>
       </c>
-      <c r="G34" s="11">
+      <c r="L34" s="11">
         <v>101716868</v>
       </c>
-      <c r="H34" s="11">
+      <c r="M34" s="11">
         <v>101132414</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
+        <v>814753</v>
+      </c>
+      <c r="E35" s="15">
+        <v>586393</v>
+      </c>
+      <c r="F35" s="15">
+        <v>1154318</v>
+      </c>
+      <c r="G35" s="15">
+        <v>622077</v>
+      </c>
+      <c r="H35" s="15">
+        <v>6045032</v>
+      </c>
+      <c r="I35" s="15">
         <v>10259986</v>
       </c>
-      <c r="E35" s="15">
+      <c r="J35" s="15">
         <v>8489811</v>
       </c>
-      <c r="F35" s="15">
+      <c r="K35" s="15">
         <v>9124554</v>
       </c>
-      <c r="G35" s="15">
+      <c r="L35" s="15">
         <v>8187439</v>
       </c>
-      <c r="H35" s="15">
+      <c r="M35" s="15">
         <v>8701823</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11">
@@ -1358,157 +1815,277 @@
       <c r="H36" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I36" s="11">
+        <v>0</v>
+      </c>
+      <c r="J36" s="11">
+        <v>0</v>
+      </c>
+      <c r="K36" s="11">
+        <v>0</v>
+      </c>
+      <c r="L36" s="11">
+        <v>0</v>
+      </c>
+      <c r="M36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="16" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
+        <v>101698070</v>
+      </c>
+      <c r="E37" s="17">
+        <v>103127996</v>
+      </c>
+      <c r="F37" s="17">
+        <v>56207281</v>
+      </c>
+      <c r="G37" s="17">
+        <v>254151017</v>
+      </c>
+      <c r="H37" s="17">
+        <v>209152629</v>
+      </c>
+      <c r="I37" s="17">
         <v>226653886</v>
       </c>
-      <c r="E37" s="17">
+      <c r="J37" s="17">
         <v>172458714</v>
       </c>
-      <c r="F37" s="17">
+      <c r="K37" s="17">
         <v>234611127</v>
       </c>
-      <c r="G37" s="17">
+      <c r="L37" s="17">
         <v>295958151</v>
       </c>
-      <c r="H37" s="17">
+      <c r="M37" s="17">
         <v>220982134</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
+        <v>4891889</v>
+      </c>
+      <c r="E38" s="11">
+        <v>4773710</v>
+      </c>
+      <c r="F38" s="11">
+        <v>9905491</v>
+      </c>
+      <c r="G38" s="11">
+        <v>9905491</v>
+      </c>
+      <c r="H38" s="11">
+        <v>22954964</v>
+      </c>
+      <c r="I38" s="11">
         <v>22675341</v>
       </c>
-      <c r="E38" s="11">
+      <c r="J38" s="11">
         <v>21091343</v>
       </c>
-      <c r="F38" s="11">
+      <c r="K38" s="11">
         <v>22453186</v>
       </c>
-      <c r="G38" s="11">
+      <c r="L38" s="11">
         <v>25271784</v>
       </c>
-      <c r="H38" s="11">
+      <c r="M38" s="11">
         <v>31578862</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M39" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
+        <v>2521967</v>
+      </c>
+      <c r="E40" s="11">
+        <v>4299016</v>
+      </c>
+      <c r="F40" s="11">
+        <v>2876066</v>
+      </c>
+      <c r="G40" s="11">
+        <v>3059518</v>
+      </c>
+      <c r="H40" s="11">
+        <v>6242970</v>
+      </c>
+      <c r="I40" s="11">
         <v>7557600</v>
       </c>
-      <c r="E40" s="11">
+      <c r="J40" s="11">
         <v>5755395</v>
       </c>
-      <c r="F40" s="11">
+      <c r="K40" s="11">
         <v>8351298</v>
       </c>
-      <c r="G40" s="11">
+      <c r="L40" s="11">
         <v>7189399</v>
       </c>
-      <c r="H40" s="11">
+      <c r="M40" s="11">
         <v>8372734</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
+        <v>1881102</v>
+      </c>
+      <c r="E41" s="15">
+        <v>1881102</v>
+      </c>
+      <c r="F41" s="15">
+        <v>2083400</v>
+      </c>
+      <c r="G41" s="15">
+        <v>2140563</v>
+      </c>
+      <c r="H41" s="15">
+        <v>2871267</v>
+      </c>
+      <c r="I41" s="15">
         <v>2710126</v>
       </c>
-      <c r="E41" s="15">
+      <c r="J41" s="15">
         <v>2684292</v>
       </c>
-      <c r="F41" s="15">
+      <c r="K41" s="15">
         <v>2772114</v>
       </c>
-      <c r="G41" s="15">
+      <c r="L41" s="15">
         <v>1480218</v>
       </c>
-      <c r="H41" s="15">
+      <c r="M41" s="15">
         <v>3241349</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
+        <v>9294958</v>
+      </c>
+      <c r="E42" s="19">
+        <v>10953828</v>
+      </c>
+      <c r="F42" s="19">
+        <v>14864957</v>
+      </c>
+      <c r="G42" s="19">
+        <v>15105572</v>
+      </c>
+      <c r="H42" s="19">
+        <v>32069201</v>
+      </c>
+      <c r="I42" s="19">
         <v>32943067</v>
       </c>
-      <c r="E42" s="19">
+      <c r="J42" s="19">
         <v>29531030</v>
       </c>
-      <c r="F42" s="19">
+      <c r="K42" s="19">
         <v>33576598</v>
       </c>
-      <c r="G42" s="19">
+      <c r="L42" s="19">
         <v>33941401</v>
       </c>
-      <c r="H42" s="19">
+      <c r="M42" s="19">
         <v>43192945</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="16" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
+        <v>110993028</v>
+      </c>
+      <c r="E43" s="17">
+        <v>114081824</v>
+      </c>
+      <c r="F43" s="17">
+        <v>71072238</v>
+      </c>
+      <c r="G43" s="17">
+        <v>269256589</v>
+      </c>
+      <c r="H43" s="17">
+        <v>241221830</v>
+      </c>
+      <c r="I43" s="17">
         <v>259596953</v>
       </c>
-      <c r="E43" s="17">
+      <c r="J43" s="17">
         <v>201989744</v>
       </c>
-      <c r="F43" s="17">
+      <c r="K43" s="17">
         <v>268187725</v>
       </c>
-      <c r="G43" s="17">
+      <c r="L43" s="17">
         <v>329899552</v>
       </c>
-      <c r="H43" s="17">
+      <c r="M43" s="17">
         <v>264175079</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -1516,31 +2093,51 @@
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
+        <v>51000000</v>
+      </c>
+      <c r="E45" s="15">
         <v>76000000</v>
       </c>
-      <c r="E45" s="15">
+      <c r="F45" s="15">
+        <v>76000000</v>
+      </c>
+      <c r="G45" s="15">
+        <v>76000000</v>
+      </c>
+      <c r="H45" s="15">
+        <v>76000000</v>
+      </c>
+      <c r="I45" s="15">
+        <v>76000000</v>
+      </c>
+      <c r="J45" s="15">
         <v>139474458</v>
       </c>
-      <c r="F45" s="15">
+      <c r="K45" s="15">
         <v>139474458</v>
       </c>
-      <c r="G45" s="15">
+      <c r="L45" s="15">
         <v>190000000</v>
       </c>
-      <c r="H45" s="15">
+      <c r="M45" s="15">
         <v>190000000</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11">
@@ -1558,10 +2155,25 @@
       <c r="H46" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I46" s="11">
+        <v>0</v>
+      </c>
+      <c r="J46" s="11">
+        <v>0</v>
+      </c>
+      <c r="K46" s="11">
+        <v>0</v>
+      </c>
+      <c r="L46" s="11">
+        <v>0</v>
+      </c>
+      <c r="M46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
@@ -1579,31 +2191,61 @@
       <c r="H47" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I47" s="15">
+        <v>0</v>
+      </c>
+      <c r="J47" s="15">
+        <v>0</v>
+      </c>
+      <c r="K47" s="15">
+        <v>0</v>
+      </c>
+      <c r="L47" s="15">
+        <v>0</v>
+      </c>
+      <c r="M47" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
+        <v>0</v>
+      </c>
+      <c r="E48" s="11">
+        <v>0</v>
+      </c>
+      <c r="F48" s="11">
+        <v>-6402626</v>
+      </c>
+      <c r="G48" s="11">
+        <v>-10324992</v>
+      </c>
+      <c r="H48" s="11">
+        <v>-10293633</v>
+      </c>
+      <c r="I48" s="11">
         <v>-11634140</v>
       </c>
-      <c r="E48" s="11">
+      <c r="J48" s="11">
         <v>-9701628</v>
       </c>
-      <c r="F48" s="11">
+      <c r="K48" s="11">
         <v>-9701627</v>
       </c>
-      <c r="G48" s="11">
+      <c r="L48" s="11">
         <v>-9706560</v>
       </c>
-      <c r="H48" s="11">
+      <c r="M48" s="11">
         <v>-10023211</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15">
@@ -1621,35 +2263,65 @@
       <c r="H49" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I49" s="15">
+        <v>0</v>
+      </c>
+      <c r="J49" s="15">
+        <v>0</v>
+      </c>
+      <c r="K49" s="15">
+        <v>0</v>
+      </c>
+      <c r="L49" s="15">
+        <v>0</v>
+      </c>
+      <c r="M49" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
+        <v>3426232</v>
+      </c>
+      <c r="E50" s="11">
+        <v>3426232</v>
+      </c>
+      <c r="F50" s="11">
         <v>7600000</v>
       </c>
-      <c r="E50" s="11">
+      <c r="G50" s="11">
+        <v>7600000</v>
+      </c>
+      <c r="H50" s="11">
+        <v>7600000</v>
+      </c>
+      <c r="I50" s="11">
+        <v>7600000</v>
+      </c>
+      <c r="J50" s="11">
         <v>13947446</v>
       </c>
-      <c r="F50" s="11">
+      <c r="K50" s="11">
         <v>13947446</v>
       </c>
-      <c r="G50" s="11">
+      <c r="L50" s="11">
         <v>19000000</v>
       </c>
-      <c r="H50" s="11">
+      <c r="M50" s="11">
         <v>19000000</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="14" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15">
-        <v>0</v>
+        <v>8622050</v>
       </c>
       <c r="E51" s="15">
         <v>0</v>
@@ -1663,73 +2335,133 @@
       <c r="H51" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I51" s="15">
+        <v>0</v>
+      </c>
+      <c r="J51" s="15">
+        <v>0</v>
+      </c>
+      <c r="K51" s="15">
+        <v>0</v>
+      </c>
+      <c r="L51" s="15">
+        <v>0</v>
+      </c>
+      <c r="M51" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M52" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
+        <v>0</v>
+      </c>
+      <c r="E53" s="15">
+        <v>0</v>
+      </c>
+      <c r="F53" s="15">
+        <v>0</v>
+      </c>
+      <c r="G53" s="15">
+        <v>0</v>
+      </c>
+      <c r="H53" s="15">
+        <v>0</v>
+      </c>
+      <c r="I53" s="15">
         <v>63474458</v>
       </c>
-      <c r="E53" s="15">
+      <c r="J53" s="15">
         <v>13509278</v>
       </c>
-      <c r="F53" s="15">
+      <c r="K53" s="15">
         <v>13509278</v>
       </c>
-      <c r="G53" s="15">
+      <c r="L53" s="15">
         <v>13509278</v>
       </c>
-      <c r="H53" s="15">
+      <c r="M53" s="15">
         <v>13509278</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M54" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15">
@@ -1747,71 +2479,131 @@
       <c r="H55" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I55" s="15">
+        <v>0</v>
+      </c>
+      <c r="J55" s="15">
+        <v>0</v>
+      </c>
+      <c r="K55" s="15">
+        <v>0</v>
+      </c>
+      <c r="L55" s="15">
+        <v>0</v>
+      </c>
+      <c r="M55" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
+        <v>63669206</v>
+      </c>
+      <c r="E56" s="11">
+        <v>89941002</v>
+      </c>
+      <c r="F56" s="11">
+        <v>147783731</v>
+      </c>
+      <c r="G56" s="11">
+        <v>82706774</v>
+      </c>
+      <c r="H56" s="11">
+        <v>102659412</v>
+      </c>
+      <c r="I56" s="11">
         <v>153580790</v>
       </c>
-      <c r="E56" s="11">
+      <c r="J56" s="11">
         <v>216716886</v>
       </c>
-      <c r="F56" s="11">
+      <c r="K56" s="11">
         <v>348032198</v>
       </c>
-      <c r="G56" s="11">
+      <c r="L56" s="11">
         <v>250719714</v>
       </c>
-      <c r="H56" s="11">
+      <c r="M56" s="11">
         <v>301980188</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="16" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
+        <v>126717488</v>
+      </c>
+      <c r="E57" s="17">
+        <v>169367234</v>
+      </c>
+      <c r="F57" s="17">
+        <v>224981105</v>
+      </c>
+      <c r="G57" s="17">
+        <v>155981782</v>
+      </c>
+      <c r="H57" s="17">
+        <v>175965779</v>
+      </c>
+      <c r="I57" s="17">
         <v>289021108</v>
       </c>
-      <c r="E57" s="17">
+      <c r="J57" s="17">
         <v>373946440</v>
       </c>
-      <c r="F57" s="17">
+      <c r="K57" s="17">
         <v>505261753</v>
       </c>
-      <c r="G57" s="17">
+      <c r="L57" s="17">
         <v>463522432</v>
       </c>
-      <c r="H57" s="17">
+      <c r="M57" s="17">
         <v>514466255</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" s="18" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
+        <v>237710516</v>
+      </c>
+      <c r="E58" s="19">
+        <v>283449058</v>
+      </c>
+      <c r="F58" s="19">
+        <v>296053343</v>
+      </c>
+      <c r="G58" s="19">
+        <v>425238371</v>
+      </c>
+      <c r="H58" s="19">
+        <v>417187609</v>
+      </c>
+      <c r="I58" s="19">
         <v>548618061</v>
       </c>
-      <c r="E58" s="19">
+      <c r="J58" s="19">
         <v>575936184</v>
       </c>
-      <c r="F58" s="19">
+      <c r="K58" s="19">
         <v>773449478</v>
       </c>
-      <c r="G58" s="19">
+      <c r="L58" s="19">
         <v>793421984</v>
       </c>
-      <c r="H58" s="19">
+      <c r="M58" s="19">
         <v>778641334</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1819,6 +2611,11 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/palayesh/shapna/balancesheet/quarterly.xlsx
+++ b/database/industries/palayesh/shapna/balancesheet/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\palayesh\shapna\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\palayesh\shapna\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DBF677-1A2E-4353-A945-6A32598E53DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1AB2F1-9F32-473A-9853-312B6BB6A1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,12 +64,12 @@
     <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1399-09-30 (2)</t>
-  </si>
-  <si>
     <t>1399-11-28</t>
   </si>
   <si>
@@ -88,7 +85,7 @@
     <t>1400-10-29</t>
   </si>
   <si>
-    <t>1401-10-28 (7)</t>
+    <t>1402-02-29 (8)</t>
   </si>
   <si>
     <t>1401-04-30</t>
@@ -98,6 +95,9 @@
   </si>
   <si>
     <t>1401-10-28</t>
+  </si>
+  <si>
+    <t>1402-02-29</t>
   </si>
   <si>
     <t>دارایی</t>
@@ -732,18 +732,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="9" width="29" customWidth="1"/>
-    <col min="10" max="10" width="31" customWidth="1"/>
-    <col min="11" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="10" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -757,7 +758,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -773,7 +774,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -789,7 +790,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -803,7 +804,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -819,7 +820,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -835,7 +836,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -849,7 +850,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -885,7 +886,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -921,7 +922,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -935,7 +936,7 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
@@ -951,187 +952,187 @@
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>44186370</v>
+        <v>44734033</v>
       </c>
       <c r="E12" s="15">
-        <v>44734033</v>
+        <v>47857538</v>
       </c>
       <c r="F12" s="15">
-        <v>47857538</v>
+        <v>59923800</v>
       </c>
       <c r="G12" s="15">
-        <v>59923800</v>
+        <v>74676089</v>
       </c>
       <c r="H12" s="15">
-        <v>74676089</v>
+        <v>97818674</v>
       </c>
       <c r="I12" s="15">
-        <v>97818674</v>
+        <v>85638309</v>
       </c>
       <c r="J12" s="15">
-        <v>85638309</v>
+        <v>121773731</v>
       </c>
       <c r="K12" s="15">
-        <v>121773731</v>
+        <v>141091872</v>
       </c>
       <c r="L12" s="15">
-        <v>141091872</v>
+        <v>33881297</v>
       </c>
       <c r="M12" s="15">
-        <v>33881297</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>30203850</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
-        <v>554956</v>
+        <v>3880730</v>
       </c>
       <c r="E13" s="11">
-        <v>3880730</v>
+        <v>541194</v>
       </c>
       <c r="F13" s="11">
-        <v>541194</v>
+        <v>465860</v>
       </c>
       <c r="G13" s="11">
-        <v>465860</v>
+        <v>530260</v>
       </c>
       <c r="H13" s="11">
         <v>530260</v>
       </c>
       <c r="I13" s="11">
-        <v>530260</v>
+        <v>127691</v>
       </c>
       <c r="J13" s="11">
-        <v>127691</v>
+        <v>43912181</v>
       </c>
       <c r="K13" s="11">
-        <v>43912181</v>
+        <v>33635967</v>
       </c>
       <c r="L13" s="11">
-        <v>33635967</v>
+        <v>60285955</v>
       </c>
       <c r="M13" s="11">
-        <v>60285955</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>68331871</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
-        <v>30408474</v>
+        <v>33253837</v>
       </c>
       <c r="E14" s="15">
-        <v>33253837</v>
+        <v>45525488</v>
       </c>
       <c r="F14" s="15">
-        <v>45525488</v>
+        <v>75869878</v>
       </c>
       <c r="G14" s="15">
-        <v>75869878</v>
+        <v>48880564</v>
       </c>
       <c r="H14" s="15">
-        <v>48880564</v>
+        <v>70104918</v>
       </c>
       <c r="I14" s="15">
-        <v>70104918</v>
+        <v>61600474</v>
       </c>
       <c r="J14" s="15">
-        <v>61600474</v>
+        <v>94686376</v>
       </c>
       <c r="K14" s="15">
-        <v>94686376</v>
+        <v>101682416</v>
       </c>
       <c r="L14" s="15">
-        <v>101682416</v>
+        <v>154680287</v>
       </c>
       <c r="M14" s="15">
-        <v>154680287</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>263118109</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
-        <v>69569491</v>
+        <v>90462850</v>
       </c>
       <c r="E15" s="11">
-        <v>90462850</v>
+        <v>73326107</v>
       </c>
       <c r="F15" s="11">
-        <v>73326107</v>
+        <v>109800942</v>
       </c>
       <c r="G15" s="11">
-        <v>109800942</v>
+        <v>110378881</v>
       </c>
       <c r="H15" s="11">
-        <v>110378881</v>
+        <v>122193192</v>
       </c>
       <c r="I15" s="11">
-        <v>122193192</v>
+        <v>137213134</v>
       </c>
       <c r="J15" s="11">
-        <v>137213134</v>
+        <v>208962154</v>
       </c>
       <c r="K15" s="11">
-        <v>208962154</v>
+        <v>204431656</v>
       </c>
       <c r="L15" s="11">
-        <v>204431656</v>
+        <v>219469880</v>
       </c>
       <c r="M15" s="11">
-        <v>219469880</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+        <v>154513606</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
-        <v>518770</v>
+        <v>487052</v>
       </c>
       <c r="E16" s="15">
-        <v>487052</v>
+        <v>229635</v>
       </c>
       <c r="F16" s="15">
-        <v>229635</v>
+        <v>5073734</v>
       </c>
       <c r="G16" s="15">
-        <v>5073734</v>
+        <v>886630</v>
       </c>
       <c r="H16" s="15">
-        <v>886630</v>
+        <v>952147</v>
       </c>
       <c r="I16" s="15">
-        <v>952147</v>
+        <v>702290</v>
       </c>
       <c r="J16" s="15">
-        <v>702290</v>
+        <v>1037916</v>
       </c>
       <c r="K16" s="15">
-        <v>1037916</v>
+        <v>1912248</v>
       </c>
       <c r="L16" s="15">
-        <v>1912248</v>
+        <v>3861035</v>
       </c>
       <c r="M16" s="15">
-        <v>3861035</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>3126277</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>32</v>
       </c>
@@ -1167,115 +1168,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
-        <v>145238061</v>
+        <v>172818502</v>
       </c>
       <c r="E18" s="17">
-        <v>172818502</v>
+        <v>167479962</v>
       </c>
       <c r="F18" s="17">
-        <v>167479962</v>
+        <v>251134214</v>
       </c>
       <c r="G18" s="17">
-        <v>251134214</v>
+        <v>235352424</v>
       </c>
       <c r="H18" s="17">
-        <v>235352424</v>
+        <v>291599191</v>
       </c>
       <c r="I18" s="17">
-        <v>291599191</v>
+        <v>285281898</v>
       </c>
       <c r="J18" s="17">
-        <v>285281898</v>
+        <v>470372358</v>
       </c>
       <c r="K18" s="17">
-        <v>470372358</v>
+        <v>482754159</v>
       </c>
       <c r="L18" s="17">
-        <v>482754159</v>
+        <v>472178454</v>
       </c>
       <c r="M18" s="17">
-        <v>472178454</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+        <v>519293713</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
-        <v>183728</v>
+        <v>269047</v>
       </c>
       <c r="E19" s="11">
-        <v>269047</v>
+        <v>198975</v>
       </c>
       <c r="F19" s="11">
-        <v>198975</v>
+        <v>460126</v>
       </c>
       <c r="G19" s="11">
-        <v>460126</v>
+        <v>189921</v>
       </c>
       <c r="H19" s="11">
-        <v>189921</v>
+        <v>183989</v>
       </c>
       <c r="I19" s="11">
-        <v>183989</v>
+        <v>372759</v>
       </c>
       <c r="J19" s="11">
-        <v>372759</v>
+        <v>826045</v>
       </c>
       <c r="K19" s="11">
-        <v>826045</v>
+        <v>1032703</v>
       </c>
       <c r="L19" s="11">
-        <v>1032703</v>
+        <v>999663</v>
       </c>
       <c r="M19" s="11">
-        <v>999663</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1821978</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
-        <v>33000</v>
+        <v>7462996</v>
       </c>
       <c r="E20" s="15">
-        <v>7462996</v>
+        <v>13170314</v>
       </c>
       <c r="F20" s="15">
-        <v>13170314</v>
+        <v>51037068</v>
       </c>
       <c r="G20" s="15">
-        <v>51037068</v>
+        <v>49415105</v>
       </c>
       <c r="H20" s="15">
-        <v>49415105</v>
+        <v>49899226</v>
       </c>
       <c r="I20" s="15">
-        <v>49899226</v>
+        <v>52048131</v>
       </c>
       <c r="J20" s="15">
-        <v>52048131</v>
+        <v>52118269</v>
       </c>
       <c r="K20" s="15">
         <v>52118269</v>
       </c>
       <c r="L20" s="15">
-        <v>52118269</v>
+        <v>52118496</v>
       </c>
       <c r="M20" s="15">
-        <v>52118496</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>55235513</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>36</v>
       </c>
@@ -1311,79 +1312,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
-        <v>88458310</v>
+        <v>98978787</v>
       </c>
       <c r="E22" s="15">
-        <v>98978787</v>
+        <v>111900439</v>
       </c>
       <c r="F22" s="15">
-        <v>111900439</v>
+        <v>118487467</v>
       </c>
       <c r="G22" s="15">
-        <v>118487467</v>
+        <v>128289940</v>
       </c>
       <c r="H22" s="15">
-        <v>128289940</v>
+        <v>201475182</v>
       </c>
       <c r="I22" s="15">
-        <v>201475182</v>
+        <v>232717404</v>
       </c>
       <c r="J22" s="15">
-        <v>232717404</v>
+        <v>241386632</v>
       </c>
       <c r="K22" s="15">
-        <v>241386632</v>
+        <v>249179795</v>
       </c>
       <c r="L22" s="15">
-        <v>249179795</v>
+        <v>244952822</v>
       </c>
       <c r="M22" s="15">
-        <v>244952822</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <v>318703716</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
-        <v>666117</v>
+        <v>665821</v>
       </c>
       <c r="E23" s="11">
-        <v>665821</v>
+        <v>669112</v>
       </c>
       <c r="F23" s="11">
-        <v>669112</v>
+        <v>668076</v>
       </c>
       <c r="G23" s="11">
-        <v>668076</v>
+        <v>667846</v>
       </c>
       <c r="H23" s="11">
-        <v>667846</v>
+        <v>666986</v>
       </c>
       <c r="I23" s="11">
-        <v>666986</v>
+        <v>649982</v>
       </c>
       <c r="J23" s="11">
-        <v>649982</v>
+        <v>333501</v>
       </c>
       <c r="K23" s="11">
-        <v>333501</v>
+        <v>652493</v>
       </c>
       <c r="L23" s="11">
-        <v>652493</v>
+        <v>657485</v>
       </c>
       <c r="M23" s="11">
-        <v>657485</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+        <v>336884</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>39</v>
       </c>
@@ -1419,115 +1420,115 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
-        <v>3131300</v>
+        <v>3253905</v>
       </c>
       <c r="E25" s="11">
-        <v>3253905</v>
+        <v>2634541</v>
       </c>
       <c r="F25" s="11">
-        <v>2634541</v>
+        <v>3451420</v>
       </c>
       <c r="G25" s="11">
-        <v>3451420</v>
+        <v>3272373</v>
       </c>
       <c r="H25" s="11">
-        <v>3272373</v>
+        <v>4793487</v>
       </c>
       <c r="I25" s="11">
-        <v>4793487</v>
+        <v>4866010</v>
       </c>
       <c r="J25" s="11">
-        <v>4866010</v>
+        <v>8412673</v>
       </c>
       <c r="K25" s="11">
-        <v>8412673</v>
+        <v>7684565</v>
       </c>
       <c r="L25" s="11">
-        <v>7684565</v>
+        <v>7734414</v>
       </c>
       <c r="M25" s="11">
-        <v>7734414</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+        <v>14773601</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
-        <v>92472455</v>
+        <v>110630556</v>
       </c>
       <c r="E26" s="17">
-        <v>110630556</v>
+        <v>128573381</v>
       </c>
       <c r="F26" s="17">
-        <v>128573381</v>
+        <v>174104157</v>
       </c>
       <c r="G26" s="17">
-        <v>174104157</v>
+        <v>181835185</v>
       </c>
       <c r="H26" s="17">
-        <v>181835185</v>
+        <v>257018870</v>
       </c>
       <c r="I26" s="17">
-        <v>257018870</v>
+        <v>290654286</v>
       </c>
       <c r="J26" s="17">
-        <v>290654286</v>
+        <v>303077120</v>
       </c>
       <c r="K26" s="17">
-        <v>303077120</v>
+        <v>310667825</v>
       </c>
       <c r="L26" s="17">
-        <v>310667825</v>
+        <v>306462880</v>
       </c>
       <c r="M26" s="17">
-        <v>306462880</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+        <v>390871692</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="18" t="s">
         <v>43</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
-        <v>237710516</v>
+        <v>283449058</v>
       </c>
       <c r="E27" s="19">
-        <v>283449058</v>
+        <v>296053343</v>
       </c>
       <c r="F27" s="19">
-        <v>296053343</v>
+        <v>425238371</v>
       </c>
       <c r="G27" s="19">
-        <v>425238371</v>
+        <v>417187609</v>
       </c>
       <c r="H27" s="19">
-        <v>417187609</v>
+        <v>548618061</v>
       </c>
       <c r="I27" s="19">
-        <v>548618061</v>
+        <v>575936184</v>
       </c>
       <c r="J27" s="19">
-        <v>575936184</v>
+        <v>773449478</v>
       </c>
       <c r="K27" s="19">
-        <v>773449478</v>
+        <v>793421984</v>
       </c>
       <c r="L27" s="19">
-        <v>793421984</v>
+        <v>778641334</v>
       </c>
       <c r="M27" s="19">
-        <v>778641334</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+        <v>910165405</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>44</v>
       </c>
@@ -1543,43 +1544,43 @@
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
-        <v>71174520</v>
+        <v>68933052</v>
       </c>
       <c r="E29" s="15">
-        <v>68933052</v>
+        <v>34328726</v>
       </c>
       <c r="F29" s="15">
-        <v>34328726</v>
+        <v>132524679</v>
       </c>
       <c r="G29" s="15">
-        <v>132524679</v>
+        <v>101018869</v>
       </c>
       <c r="H29" s="15">
-        <v>101018869</v>
+        <v>97544700</v>
       </c>
       <c r="I29" s="15">
-        <v>97544700</v>
+        <v>79666120</v>
       </c>
       <c r="J29" s="15">
-        <v>76919144</v>
+        <v>61912635</v>
       </c>
       <c r="K29" s="15">
-        <v>61912635</v>
+        <v>49332427</v>
       </c>
       <c r="L29" s="15">
-        <v>49332427</v>
+        <v>39797280</v>
       </c>
       <c r="M29" s="15">
-        <v>39797280</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+        <v>66908492</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>46</v>
       </c>
@@ -1615,187 +1616,187 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>47</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
-        <v>2620672</v>
+        <v>1831428</v>
       </c>
       <c r="E31" s="15">
-        <v>1831428</v>
+        <v>2357210</v>
       </c>
       <c r="F31" s="15">
-        <v>2357210</v>
+        <v>2337312</v>
       </c>
       <c r="G31" s="15">
-        <v>2337312</v>
+        <v>2518422</v>
       </c>
       <c r="H31" s="15">
-        <v>2518422</v>
+        <v>3382332</v>
       </c>
       <c r="I31" s="15">
-        <v>3382332</v>
+        <v>3186450</v>
       </c>
       <c r="J31" s="15">
-        <v>3186450</v>
+        <v>6149004</v>
       </c>
       <c r="K31" s="15">
-        <v>6149004</v>
+        <v>1652520</v>
       </c>
       <c r="L31" s="15">
-        <v>1652520</v>
+        <v>5599765</v>
       </c>
       <c r="M31" s="15">
-        <v>5599765</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+        <v>13094153</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
-        <v>9752733</v>
+        <v>19116913</v>
       </c>
       <c r="E32" s="11">
-        <v>19116913</v>
+        <v>16084918</v>
       </c>
       <c r="F32" s="11">
-        <v>16084918</v>
+        <v>20035680</v>
       </c>
       <c r="G32" s="11">
-        <v>20035680</v>
+        <v>11265651</v>
       </c>
       <c r="H32" s="11">
-        <v>11265651</v>
+        <v>23147057</v>
       </c>
       <c r="I32" s="11">
-        <v>23147057</v>
+        <v>27316446</v>
       </c>
       <c r="J32" s="11">
-        <v>27316446</v>
+        <v>56493794</v>
       </c>
       <c r="K32" s="11">
-        <v>56493794</v>
+        <v>42565752</v>
       </c>
       <c r="L32" s="11">
-        <v>42565752</v>
+        <v>51079905</v>
       </c>
       <c r="M32" s="11">
-        <v>51079905</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+        <v>49625709</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
         <v>49</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
-        <v>17335392</v>
+        <v>10660210</v>
       </c>
       <c r="E33" s="15">
-        <v>10660210</v>
+        <v>193342</v>
       </c>
       <c r="F33" s="15">
-        <v>193342</v>
+        <v>90631269</v>
       </c>
       <c r="G33" s="15">
-        <v>90631269</v>
+        <v>65488491</v>
       </c>
       <c r="H33" s="15">
-        <v>65488491</v>
+        <v>38769044</v>
       </c>
       <c r="I33" s="15">
-        <v>38769044</v>
+        <v>292903</v>
       </c>
       <c r="J33" s="15">
-        <v>292903</v>
+        <v>122989</v>
       </c>
       <c r="K33" s="15">
-        <v>122989</v>
+        <v>92503145</v>
       </c>
       <c r="L33" s="15">
-        <v>92503145</v>
+        <v>14670947</v>
       </c>
       <c r="M33" s="15">
-        <v>14670947</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+        <v>58482</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="E34" s="11">
-        <v>2000000</v>
+        <v>2088767</v>
       </c>
       <c r="F34" s="11">
-        <v>2088767</v>
+        <v>8000000</v>
       </c>
       <c r="G34" s="11">
-        <v>8000000</v>
+        <v>22816164</v>
       </c>
       <c r="H34" s="11">
-        <v>22816164</v>
+        <v>53550767</v>
       </c>
       <c r="I34" s="11">
-        <v>53550767</v>
+        <v>56253960</v>
       </c>
       <c r="J34" s="11">
-        <v>56253960</v>
+        <v>100808151</v>
       </c>
       <c r="K34" s="11">
-        <v>100808151</v>
+        <v>101716868</v>
       </c>
       <c r="L34" s="11">
-        <v>101716868</v>
+        <v>101132414</v>
       </c>
       <c r="M34" s="11">
-        <v>101132414</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+        <v>108624002</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>51</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
-        <v>814753</v>
+        <v>586393</v>
       </c>
       <c r="E35" s="15">
-        <v>586393</v>
+        <v>1154318</v>
       </c>
       <c r="F35" s="15">
-        <v>1154318</v>
+        <v>622077</v>
       </c>
       <c r="G35" s="15">
-        <v>622077</v>
+        <v>6045032</v>
       </c>
       <c r="H35" s="15">
-        <v>6045032</v>
+        <v>10259986</v>
       </c>
       <c r="I35" s="15">
-        <v>10259986</v>
+        <v>5742836</v>
       </c>
       <c r="J35" s="15">
-        <v>8489811</v>
+        <v>9124554</v>
       </c>
       <c r="K35" s="15">
-        <v>9124554</v>
+        <v>8187439</v>
       </c>
       <c r="L35" s="15">
-        <v>8187439</v>
+        <v>8701823</v>
       </c>
       <c r="M35" s="15">
-        <v>8701823</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+        <v>6500126</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>52</v>
       </c>
@@ -1831,79 +1832,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
         <v>53</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
-        <v>101698070</v>
+        <v>103127996</v>
       </c>
       <c r="E37" s="17">
-        <v>103127996</v>
+        <v>56207281</v>
       </c>
       <c r="F37" s="17">
-        <v>56207281</v>
+        <v>254151017</v>
       </c>
       <c r="G37" s="17">
-        <v>254151017</v>
+        <v>209152629</v>
       </c>
       <c r="H37" s="17">
-        <v>209152629</v>
+        <v>226653886</v>
       </c>
       <c r="I37" s="17">
-        <v>226653886</v>
+        <v>172458715</v>
       </c>
       <c r="J37" s="17">
-        <v>172458714</v>
+        <v>234611127</v>
       </c>
       <c r="K37" s="17">
-        <v>234611127</v>
+        <v>295958151</v>
       </c>
       <c r="L37" s="17">
-        <v>295958151</v>
+        <v>220982134</v>
       </c>
       <c r="M37" s="17">
-        <v>220982134</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+        <v>244810964</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>54</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
-        <v>4891889</v>
+        <v>4773710</v>
       </c>
       <c r="E38" s="11">
-        <v>4773710</v>
+        <v>9905491</v>
       </c>
       <c r="F38" s="11">
         <v>9905491</v>
       </c>
       <c r="G38" s="11">
-        <v>9905491</v>
+        <v>22954964</v>
       </c>
       <c r="H38" s="11">
-        <v>22954964</v>
+        <v>22675341</v>
       </c>
       <c r="I38" s="11">
-        <v>22675341</v>
+        <v>5672390</v>
       </c>
       <c r="J38" s="11">
-        <v>21091343</v>
+        <v>22453186</v>
       </c>
       <c r="K38" s="11">
-        <v>22453186</v>
+        <v>25271784</v>
       </c>
       <c r="L38" s="11">
-        <v>25271784</v>
+        <v>31578862</v>
       </c>
       <c r="M38" s="11">
-        <v>31578862</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>55</v>
       </c>
@@ -1939,43 +1940,43 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
-        <v>2521967</v>
+        <v>4299016</v>
       </c>
       <c r="E40" s="11">
-        <v>4299016</v>
+        <v>2876066</v>
       </c>
       <c r="F40" s="11">
-        <v>2876066</v>
+        <v>3059518</v>
       </c>
       <c r="G40" s="11">
-        <v>3059518</v>
+        <v>6242970</v>
       </c>
       <c r="H40" s="11">
-        <v>6242970</v>
+        <v>7557600</v>
       </c>
       <c r="I40" s="11">
-        <v>7557600</v>
+        <v>5755395</v>
       </c>
       <c r="J40" s="11">
-        <v>5755395</v>
+        <v>8351298</v>
       </c>
       <c r="K40" s="11">
-        <v>8351298</v>
+        <v>7189399</v>
       </c>
       <c r="L40" s="11">
-        <v>7189399</v>
+        <v>8372734</v>
       </c>
       <c r="M40" s="11">
-        <v>8372734</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+        <v>9597635</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>57</v>
       </c>
@@ -1984,106 +1985,106 @@
         <v>1881102</v>
       </c>
       <c r="E41" s="15">
-        <v>1881102</v>
+        <v>2083400</v>
       </c>
       <c r="F41" s="15">
-        <v>2083400</v>
+        <v>2140563</v>
       </c>
       <c r="G41" s="15">
-        <v>2140563</v>
+        <v>2871267</v>
       </c>
       <c r="H41" s="15">
-        <v>2871267</v>
+        <v>2710126</v>
       </c>
       <c r="I41" s="15">
-        <v>2710126</v>
+        <v>18103244</v>
       </c>
       <c r="J41" s="15">
-        <v>2684292</v>
+        <v>2772114</v>
       </c>
       <c r="K41" s="15">
-        <v>2772114</v>
+        <v>1480218</v>
       </c>
       <c r="L41" s="15">
-        <v>1480218</v>
+        <v>3241349</v>
       </c>
       <c r="M41" s="15">
-        <v>3241349</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+        <v>23641147</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
         <v>58</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
-        <v>9294958</v>
+        <v>10953828</v>
       </c>
       <c r="E42" s="19">
-        <v>10953828</v>
+        <v>14864957</v>
       </c>
       <c r="F42" s="19">
-        <v>14864957</v>
+        <v>15105572</v>
       </c>
       <c r="G42" s="19">
-        <v>15105572</v>
+        <v>32069201</v>
       </c>
       <c r="H42" s="19">
-        <v>32069201</v>
+        <v>32943067</v>
       </c>
       <c r="I42" s="19">
-        <v>32943067</v>
+        <v>29531029</v>
       </c>
       <c r="J42" s="19">
-        <v>29531030</v>
+        <v>33576598</v>
       </c>
       <c r="K42" s="19">
-        <v>33576598</v>
+        <v>33941401</v>
       </c>
       <c r="L42" s="19">
-        <v>33941401</v>
+        <v>43192945</v>
       </c>
       <c r="M42" s="19">
-        <v>43192945</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+        <v>33238782</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
         <v>59</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
-        <v>110993028</v>
+        <v>114081824</v>
       </c>
       <c r="E43" s="17">
-        <v>114081824</v>
+        <v>71072238</v>
       </c>
       <c r="F43" s="17">
-        <v>71072238</v>
+        <v>269256589</v>
       </c>
       <c r="G43" s="17">
-        <v>269256589</v>
+        <v>241221830</v>
       </c>
       <c r="H43" s="17">
-        <v>241221830</v>
+        <v>259596953</v>
       </c>
       <c r="I43" s="17">
-        <v>259596953</v>
+        <v>201989744</v>
       </c>
       <c r="J43" s="17">
-        <v>201989744</v>
+        <v>268187725</v>
       </c>
       <c r="K43" s="17">
-        <v>268187725</v>
+        <v>329899552</v>
       </c>
       <c r="L43" s="17">
-        <v>329899552</v>
+        <v>264175079</v>
       </c>
       <c r="M43" s="17">
-        <v>264175079</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+        <v>278049746</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>60</v>
       </c>
@@ -2099,13 +2100,13 @@
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>61</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
-        <v>51000000</v>
+        <v>76000000</v>
       </c>
       <c r="E45" s="15">
         <v>76000000</v>
@@ -2120,22 +2121,22 @@
         <v>76000000</v>
       </c>
       <c r="I45" s="15">
-        <v>76000000</v>
+        <v>139474458</v>
       </c>
       <c r="J45" s="15">
         <v>139474458</v>
       </c>
       <c r="K45" s="15">
-        <v>139474458</v>
+        <v>190000000</v>
       </c>
       <c r="L45" s="15">
         <v>190000000</v>
       </c>
       <c r="M45" s="15">
-        <v>190000000</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+        <v>227000000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>62</v>
       </c>
@@ -2171,7 +2172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>63</v>
       </c>
@@ -2207,7 +2208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>64</v>
       </c>
@@ -2216,34 +2217,34 @@
         <v>0</v>
       </c>
       <c r="E48" s="11">
-        <v>0</v>
+        <v>-6402626</v>
       </c>
       <c r="F48" s="11">
-        <v>-6402626</v>
+        <v>-10324992</v>
       </c>
       <c r="G48" s="11">
-        <v>-10324992</v>
+        <v>-10293633</v>
       </c>
       <c r="H48" s="11">
-        <v>-10293633</v>
+        <v>-11634140</v>
       </c>
       <c r="I48" s="11">
-        <v>-11634140</v>
+        <v>-9701627</v>
       </c>
       <c r="J48" s="11">
-        <v>-9701628</v>
+        <v>-9701627</v>
       </c>
       <c r="K48" s="11">
-        <v>-9701627</v>
+        <v>-9706560</v>
       </c>
       <c r="L48" s="11">
-        <v>-9706560</v>
+        <v>-10023211</v>
       </c>
       <c r="M48" s="11">
-        <v>-10023211</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-10979773</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
         <v>65</v>
       </c>
@@ -2279,7 +2280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>66</v>
       </c>
@@ -2288,7 +2289,7 @@
         <v>3426232</v>
       </c>
       <c r="E50" s="11">
-        <v>3426232</v>
+        <v>7600000</v>
       </c>
       <c r="F50" s="11">
         <v>7600000</v>
@@ -2300,28 +2301,28 @@
         <v>7600000</v>
       </c>
       <c r="I50" s="11">
-        <v>7600000</v>
+        <v>13947446</v>
       </c>
       <c r="J50" s="11">
         <v>13947446</v>
       </c>
       <c r="K50" s="11">
-        <v>13947446</v>
+        <v>19000000</v>
       </c>
       <c r="L50" s="11">
         <v>19000000</v>
       </c>
       <c r="M50" s="11">
-        <v>19000000</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+        <v>22700000</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
         <v>67</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15">
-        <v>8622050</v>
+        <v>0</v>
       </c>
       <c r="E51" s="15">
         <v>0</v>
@@ -2348,10 +2349,10 @@
         <v>0</v>
       </c>
       <c r="M51" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+        <v>152744794</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>68</v>
       </c>
@@ -2387,7 +2388,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>69</v>
       </c>
@@ -2405,10 +2406,10 @@
         <v>0</v>
       </c>
       <c r="H53" s="15">
-        <v>0</v>
+        <v>63474458</v>
       </c>
       <c r="I53" s="15">
-        <v>63474458</v>
+        <v>13509278</v>
       </c>
       <c r="J53" s="15">
         <v>13509278</v>
@@ -2423,7 +2424,7 @@
         <v>13509278</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>70</v>
       </c>
@@ -2459,7 +2460,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>71</v>
       </c>
@@ -2495,115 +2496,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>72</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
-        <v>63669206</v>
+        <v>89941002</v>
       </c>
       <c r="E56" s="11">
-        <v>89941002</v>
+        <v>147783731</v>
       </c>
       <c r="F56" s="11">
-        <v>147783731</v>
+        <v>82706774</v>
       </c>
       <c r="G56" s="11">
-        <v>82706774</v>
+        <v>102659412</v>
       </c>
       <c r="H56" s="11">
-        <v>102659412</v>
+        <v>153580790</v>
       </c>
       <c r="I56" s="11">
-        <v>153580790</v>
+        <v>216716885</v>
       </c>
       <c r="J56" s="11">
-        <v>216716886</v>
+        <v>348032198</v>
       </c>
       <c r="K56" s="11">
-        <v>348032198</v>
+        <v>250719714</v>
       </c>
       <c r="L56" s="11">
-        <v>250719714</v>
+        <v>301980188</v>
       </c>
       <c r="M56" s="11">
-        <v>301980188</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+        <v>227141360</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B57" s="16" t="s">
         <v>73</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
-        <v>126717488</v>
+        <v>169367234</v>
       </c>
       <c r="E57" s="17">
-        <v>169367234</v>
+        <v>224981105</v>
       </c>
       <c r="F57" s="17">
-        <v>224981105</v>
+        <v>155981782</v>
       </c>
       <c r="G57" s="17">
-        <v>155981782</v>
+        <v>175965779</v>
       </c>
       <c r="H57" s="17">
-        <v>175965779</v>
+        <v>289021108</v>
       </c>
       <c r="I57" s="17">
-        <v>289021108</v>
+        <v>373946440</v>
       </c>
       <c r="J57" s="17">
-        <v>373946440</v>
+        <v>505261753</v>
       </c>
       <c r="K57" s="17">
-        <v>505261753</v>
+        <v>463522432</v>
       </c>
       <c r="L57" s="17">
-        <v>463522432</v>
+        <v>514466255</v>
       </c>
       <c r="M57" s="17">
-        <v>514466255</v>
-      </c>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+        <v>632115659</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B58" s="18" t="s">
         <v>74</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
-        <v>237710516</v>
+        <v>283449058</v>
       </c>
       <c r="E58" s="19">
-        <v>283449058</v>
+        <v>296053343</v>
       </c>
       <c r="F58" s="19">
-        <v>296053343</v>
+        <v>425238371</v>
       </c>
       <c r="G58" s="19">
-        <v>425238371</v>
+        <v>417187609</v>
       </c>
       <c r="H58" s="19">
-        <v>417187609</v>
+        <v>548618061</v>
       </c>
       <c r="I58" s="19">
-        <v>548618061</v>
+        <v>575936184</v>
       </c>
       <c r="J58" s="19">
-        <v>575936184</v>
+        <v>773449478</v>
       </c>
       <c r="K58" s="19">
-        <v>773449478</v>
+        <v>793421984</v>
       </c>
       <c r="L58" s="19">
-        <v>793421984</v>
+        <v>778641334</v>
       </c>
       <c r="M58" s="19">
-        <v>778641334</v>
-      </c>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+        <v>910165405</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
